--- a/data-raw/dados_rj/validacao/escape_calibre.xlsx
+++ b/data-raw/dados_rj/validacao/escape_calibre.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,15 +365,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>compatibilidade_tipo</t>
+          <t>arma_calibre_final</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arma_calibre_final</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
@@ -382,61 +377,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7,65 mm</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>264</v>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6,35 mm</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>175</v>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.38 short</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>36</v>
+          <t>.320</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>.40 auto</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>23</v>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>.38 s&amp;w (9x20 mm)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>19</v>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>.44-40 winchester</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>13</v>
+          <t>.308</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -445,417 +440,367 @@
           <t>9 mm browning long</t>
         </is>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>.44 magnum</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>8</v>
+          <t>5,5 mm bb</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 mm mauser</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>8</v>
+          <t>.40 s&amp;w magnum</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>.357 sig</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>6</v>
+          <t>45 ar</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5,5 mm bb</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>5</v>
+          <t>7 mm</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>.40 s&amp;w magnum</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>4</v>
+          <t>.38 super auto</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>36/63,5 knock</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>4</v>
+          <t>10 mm auto</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45 ar</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>4</v>
+          <t>9 mm flobert</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7 mm</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>4</v>
+          <t>.38 super (9 x 23 mm)</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>.38 super (9 x 23 mm)</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>3</v>
+          <t>.45 ar</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>.38 super auto</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>3</v>
+          <t>5,55 mm velo dog</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10 mm auto</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>3</v>
+          <t>6 mm bb</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9 mm flobert</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>3</v>
+          <t>6 mm flobert</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>.38 swl</t>
-        </is>
-      </c>
-      <c r="D21">
+          <t>7,5 mm</t>
+        </is>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>.45 ar</t>
-        </is>
-      </c>
-      <c r="D22">
+          <t>9 x 23 mm</t>
+        </is>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5,55 mm velo dog</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>2</v>
+          <t>.26</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6 mm bb</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>2</v>
+          <t>.270 winchester</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6 mm flobert</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>2</v>
+          <t>.338</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7,5 mm</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>2</v>
+          <t>.375</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9 x 23 mm</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>2</v>
+          <t>.38-40 winchester (.38 wcf)</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>.26</t>
-        </is>
-      </c>
-      <c r="D28">
+          <t>.45-70 government</t>
+        </is>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>.270 winchester</t>
-        </is>
-      </c>
-      <c r="D29">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>.338</t>
-        </is>
-      </c>
-      <c r="D30">
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>.375</t>
-        </is>
-      </c>
-      <c r="D31">
+          <t>22-250 remigton</t>
+        </is>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>.38-40 winchester (.38 wcf)</t>
-        </is>
-      </c>
-      <c r="D32">
+          <t>24 mm</t>
+        </is>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>.41 ae (action express)</t>
-        </is>
-      </c>
-      <c r="D33">
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>.410 x 76 (36)</t>
-        </is>
-      </c>
-      <c r="D34">
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>.45-70 government</t>
-        </is>
-      </c>
-      <c r="D35">
+          <t>320</t>
+        </is>
+      </c>
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D36">
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22-250 remigton</t>
-        </is>
-      </c>
-      <c r="D37">
+          <t>383 s&amp;w (9x20)</t>
+        </is>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24 mm</t>
-        </is>
-      </c>
-      <c r="D38">
+          <t>5,5 mm pellet</t>
+        </is>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D39">
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D40">
+          <t>7,35x 52 mm</t>
+        </is>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>383 s&amp;w (9x20)</t>
-        </is>
-      </c>
-      <c r="D41">
+          <t>7,62 mm mauser (7,62 x 25 mm)</t>
+        </is>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5,5 mm pellet</t>
-        </is>
-      </c>
-      <c r="D42">
+          <t>7,65 mm mauser (7,65 x 53 mm)</t>
+        </is>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7,35x 52 mm</t>
-        </is>
-      </c>
-      <c r="D43">
+          <t>8 mm mauser (8 x 57 mm)</t>
+        </is>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7,62 mm mauser (7,62 x 25 mm)</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>7,62 x 63 mm</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>7,65 mm mauser (7,65 x 53 mm)</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7,92mm mauser(7,92x57)</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>8 mm mauser (8 x 57 mm)</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
           <t>9 mm sp-6(9x39)</t>
         </is>
       </c>
-      <c r="D49">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/dados_rj/validacao/escape_calibre.xlsx
+++ b/data-raw/dados_rj/validacao/escape_calibre.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,207 +387,207 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>.40 s&amp;w magnum</t>
         </is>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.320</t>
+          <t>45 ar</t>
         </is>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7 mm</t>
         </is>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10 mm auto</t>
         </is>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>.308</t>
+          <t>9 mm flobert</t>
         </is>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9 mm browning long</t>
+          <t>.45 ar</t>
         </is>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5,5 mm bb</t>
+          <t>5,55 mm velo dog</t>
         </is>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>.40 s&amp;w magnum</t>
+          <t>6 mm bb</t>
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>45 ar</t>
+          <t>6 mm flobert</t>
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7 mm</t>
+          <t>7,5 mm</t>
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>.38 super auto</t>
+          <t>.26</t>
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10 mm auto</t>
+          <t>.270 winchester</t>
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9 mm flobert</t>
+          <t>.338</t>
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>.38 super (9 x 23 mm)</t>
+          <t>.375</t>
         </is>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>.45 ar</t>
+          <t>.45-70 government</t>
         </is>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5,55 mm velo dog</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6 mm bb</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6 mm flobert</t>
+          <t>22-250 remigton</t>
         </is>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7,5 mm</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9 x 23 mm</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>.26</t>
+          <t>383 s&amp;w (9x20)</t>
         </is>
       </c>
       <c r="C23">
@@ -597,7 +597,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>.270 winchester</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="C24">
@@ -607,7 +607,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>.338</t>
+          <t>7,35x 52 mm</t>
         </is>
       </c>
       <c r="C25">
@@ -617,7 +617,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>.375</t>
+          <t>7,65 mm mauser (7,65 x 53 mm)</t>
         </is>
       </c>
       <c r="C26">
@@ -627,180 +627,10 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>.38-40 winchester (.38 wcf)</t>
+          <t>9 mm sp-6(9x39)</t>
         </is>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>.45-70 government</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>22-250 remigton</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>24 mm</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>383 s&amp;w (9x20)</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>5,5 mm pellet</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>7,35x 52 mm</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>7,62 mm mauser (7,62 x 25 mm)</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>7,65 mm mauser (7,65 x 53 mm)</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8 mm mauser (8 x 57 mm)</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>9 mm sp-6(9x39)</t>
-        </is>
-      </c>
-      <c r="C44">
         <v>1</v>
       </c>
     </row>
